--- a/RFIDSolution/Server/wwwroot/ExcelResults/TRANSFER REPORT  01-09-2021 - 30-09-2021.xlsx
+++ b/RFIDSolution/Server/wwwroot/ExcelResults/TRANSFER REPORT  01-09-2021 - 30-09-2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="6675" yWindow="3345" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="58">
   <si>
     <t xml:space="preserve">Kho/Stock</t>
   </si>
@@ -36,100 +36,163 @@
     <t xml:space="preserve">6h00-1/1/2020</t>
   </si>
   <si>
+    <t xml:space="preserve">SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MODEL NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CATEGORY</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thời gian/Date</t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
   </si>
   <si>
+    <t xml:space="preserve">EPC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFER BY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFER NOTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFER TIME</t>
+  </si>
+  <si>
     <t xml:space="preserve">STATUS</t>
   </si>
   <si>
-    <t xml:space="preserve">BÁO CÁO KIỂM KÊ/INVENTORY REPORT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLAN NAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CREATED BY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUM OF SYSTEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUM OF CHECK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMPLETE TIME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REMARKS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CREATE TIME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMPLETE BY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inventory all shoe 20/09/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:00 20/09/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADMISTRATOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pending</t>
+    <t xml:space="preserve">RETURN BY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RETURN NOTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RETURN TIME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BÁO CÁO XUẤT KHO/TRASNFER REPORT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFER TO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFER REASON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD3111-104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BITIS HUNTER 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E28011606000020D895CCC07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DONG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quality control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfer thử</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/22/2021 7:45:22 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/22/2021 7:51:47 PM</t>
   </si>
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Inventory all shoe 21/09/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:00 22/09/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inventory all shoe 22/09/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:10 25/09/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Administrator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:16 25/09/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RÊRERERERE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invent nay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19:00 25/09/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rrwerwer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19:07 25/09/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ewrwqrwrwre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19:32 25/09/2021</t>
+    <t xml:space="preserve">KIDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E28011606000020D895CCC57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/22/2021 7:50:13 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD3111-103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E28011606000020D895CCA97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD3111-106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUCCI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADULTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E28011606000020D895CCC47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E28011606000020D895CCAB7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD3111-105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300833B2DDD9014000000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/24/2021 4:31:49 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/24/2021 4:43:17 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLAZOR MID JUMBO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdfsdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/24/2021 4:43:30 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/24/2021 4:45:43 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bgbcvbvc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/24/2021 4:46:04 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/24/2021 4:50:27 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hgfhfg</t>
   </si>
   <si>
     <t xml:space="preserve">01/09/2021 - 30/09/2021</t>
   </si>
   <si>
-    <t xml:space="preserve">17:22 27/09/2021</t>
+    <t xml:space="preserve">09:17 29/09/2021</t>
   </si>
 </sst>
 </file>
@@ -593,36 +656,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="28.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="31.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="30.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="21.5703125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="34.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="29.28515625" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="7" width="17" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="30.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="34.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="29.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -633,14 +694,13 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
       <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-    </row>
-    <row r="2" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -651,138 +711,169 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
       <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G6" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>14</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="str">
-        <f>VALUE("4")</f>
-        <v>4</v>
+        <f>VALUE("11")</f>
+        <v>11</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="7" t="str">
-        <f>VALUE("4")</f>
-        <v>4</v>
-      </c>
-      <c r="F7" s="7" t="str">
-        <f>VALUE("4")</f>
-        <v>4</v>
+        <v>23</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="str">
-        <f>VALUE("5")</f>
-        <v>5</v>
+        <f>VALUE("7")</f>
+        <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="D8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="7" t="str">
-        <f>VALUE("4")</f>
-        <v>4</v>
-      </c>
-      <c r="F8" s="7" t="str">
-        <f>VALUE("4")</f>
-        <v>4</v>
+        <v>33</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -791,215 +882,412 @@
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="7" t="str">
-        <f>VALUE("3")</f>
-        <v>3</v>
-      </c>
-      <c r="F9" s="7" t="str">
-        <f>VALUE("3")</f>
-        <v>3</v>
+        <v>33</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="str">
-        <f>VALUE("7")</f>
-        <v>7</v>
+        <f>VALUE("9")</f>
+        <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="7" t="str">
-        <f>VALUE("0")</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="7" t="str">
-        <f>VALUE("0")</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="H10" s="6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="7" t="str">
-        <f>VALUE("1231")</f>
-        <v>1231</v>
+        <v>32</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="str">
-        <f>VALUE("8")</f>
-        <v>8</v>
+        <f>VALUE("10")</f>
+        <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="7" t="str">
-        <f>VALUE("0")</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="7" t="str">
-        <f>VALUE("0")</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="I11" s="6" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="str">
-        <f>VALUE("9")</f>
-        <v>9</v>
+        <f>VALUE("15")</f>
+        <v>15</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="7" t="str">
-        <f>VALUE("0")</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="7" t="str">
-        <f>VALUE("0")</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>31</v>
+      <c r="L12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="str">
-        <f>VALUE("10")</f>
-        <v>10</v>
+        <f>VALUE("14")</f>
+        <v>14</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="7" t="str">
+        <f>VALUE("1236")</f>
+        <v>1236</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="7" t="str">
-        <f>VALUE("11")</f>
-        <v>11</v>
-      </c>
-      <c r="F13" s="7" t="str">
-        <f>VALUE("0")</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="H13" s="6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>33</v>
+        <v>45</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="str">
-        <f>VALUE("11")</f>
-        <v>11</v>
+        <f>VALUE("14")</f>
+        <v>14</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="7" t="str">
+        <f>VALUE("1236")</f>
+        <v>1236</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="7" t="str">
+      <c r="H14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="str">
         <f>VALUE("15")</f>
         <v>15</v>
       </c>
-      <c r="F14" s="7" t="str">
-        <f>VALUE("0")</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>21</v>
+      <c r="B15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="str">
+        <f>VALUE("14")</f>
+        <v>14</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="7" t="str">
+        <f>VALUE("1236")</f>
+        <v>1236</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="str">
+        <f>VALUE("15")</f>
+        <v>15</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A1:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
